--- a/新規 Microsoft Office Excel ワークシート.xlsx
+++ b/新規 Microsoft Office Excel ワークシート.xlsx
@@ -356,15 +356,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
